--- a/biology/Botanique/Square_de_Notre-Dame-de-la-Croix/Square_de_Notre-Dame-de-la-Croix.xlsx
+++ b/biology/Botanique/Square_de_Notre-Dame-de-la-Croix/Square_de_Notre-Dame-de-la-Croix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square de Notre-Dame-de-la-Croix est un espace vert du 20e arrondissement de Paris dans le quartier de Belleville.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est accessible par les 1-5, rue de la Mare et la rue d'Eupatoria.
 Il est desservi par la ligne 2 à la station Ménilmontant.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il doit son nom à la proximité de l'église Notre-Dame-de-la-Croix.
 </t>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,7 +619,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Une des fontaines Wallace de Paris.</t>
         </is>
